--- a/pj1-search/report/测试结果.xlsx
+++ b/pj1-search/report/测试结果.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\大三上学习资料\人工智能\Pacman\pj1-search\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35A11405-F47D-43F0-A1BF-48B422218237}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B024C47-292B-4040-8BF2-A5C9ABA2AB4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="17472" windowHeight="10392" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="17472" windowHeight="10392" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="q1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="21">
   <si>
     <t>扩展的节点</t>
   </si>
@@ -97,6 +97,14 @@
   </si>
   <si>
     <t>openMaze</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索策略</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A*(with our own cornersHeuristic)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -694,7 +702,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B4AD984-97FB-4FF5-93D9-B1A731575D3D}">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
@@ -881,38 +889,60 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8583F5BE-0C8A-4957-8416-FE17EEB22BCC}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="28.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="1"/>
+    <row r="1" spans="1:5" ht="28.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="B1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="4">
-        <v>901</v>
+      <c r="B2" t="s">
+        <v>20</v>
       </c>
       <c r="C2" s="4">
+        <v>1745</v>
+      </c>
+      <c r="D2" s="4">
         <v>106</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3">
+        <v>2449</v>
+      </c>
+      <c r="D3">
+        <v>106</v>
       </c>
     </row>
   </sheetData>

--- a/pj1-search/report/测试结果.xlsx
+++ b/pj1-search/report/测试结果.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\大三上学习资料\人工智能\Pacman\pj1-search\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B024C47-292B-4040-8BF2-A5C9ABA2AB4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17DFC91F-0E33-4B0B-8615-CE351207303B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="17472" windowHeight="10392" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="17472" windowHeight="10392" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="q1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="24">
   <si>
     <t>扩展的节点</t>
   </si>
@@ -105,6 +105,17 @@
   </si>
   <si>
     <t>A*(with our own cornersHeuristic)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>探索时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>trickySearch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bigSearch </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -157,7 +168,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -217,11 +228,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -237,6 +257,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -891,7 +914,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8583F5BE-0C8A-4957-8416-FE17EEB22BCC}">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
@@ -953,43 +976,40 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DEA6BE4-AC6A-498D-9C68-949B0422591E}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A2" sqref="A1:D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="16.69921875" defaultRowHeight="36.299999999999997" customHeight="1" x14ac:dyDescent="0.5"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="28.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="1"/>
+    <row r="1" spans="1:4" ht="36.299999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D1" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="36.299999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="5" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="B2" s="4">
-        <v>435</v>
+        <v>4110</v>
       </c>
       <c r="C2" s="4">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="4">
-        <v>2448</v>
-      </c>
-      <c r="C3" s="4">
-        <v>106</v>
+        <v>60</v>
+      </c>
+      <c r="D2">
+        <v>21.5</v>
       </c>
     </row>
   </sheetData>
@@ -1000,14 +1020,34 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D52B1658-9318-48C7-A9C4-C4F8A8CDE219}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="14.546875" defaultRowHeight="34.799999999999997" customHeight="1" x14ac:dyDescent="0.5"/>
+  <sheetData>
+    <row r="1" spans="1:4" ht="34.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="7"/>
+    </row>
+    <row r="2" spans="1:4" ht="34.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4">
+        <v>350</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
